--- a/赛马/五月.xlsx
+++ b/赛马/五月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2018046" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="2018055" sheetId="10" r:id="rId10"/>
     <sheet name="2018056" sheetId="11" r:id="rId11"/>
     <sheet name="2018057" sheetId="12" r:id="rId12"/>
+    <sheet name="2018058" sheetId="13" r:id="rId13"/>
+    <sheet name="2018059" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="83">
   <si>
     <t>返水率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +343,22 @@
     <t>盈亏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大小单双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -518,6 +536,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,18 +561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,7 +870,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:X12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -863,13 +881,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
@@ -1128,40 +1146,40 @@
       <c r="N13" s="6"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -2013,51 +2031,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>-565</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>6899.54</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>1116.46</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>3955</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>-3145.6</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U31" s="6"/>
@@ -2115,17 +2133,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2149,14 +2167,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -2443,47 +2461,47 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="21" t="s">
+      <c r="V17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="23"/>
-      <c r="AA17" s="21" t="s">
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="23"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -3492,61 +3510,61 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>5080.5</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
         <v>471.89999999999964</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
         <v>308.92000000000007</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
         <v>-815.75</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
         <v>-2383.92</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
       <c r="AA30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="20">
         <f>AB29-AC29-AD29</f>
         <v>1408</v>
       </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="27"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
@@ -3607,6 +3625,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="Q17:T17"/>
     <mergeCell ref="AA17:AD17"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="H30:J30"/>
@@ -3615,11 +3638,6 @@
     <mergeCell ref="W30:Y30"/>
     <mergeCell ref="AB30:AD30"/>
     <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="Q17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,14 +3661,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -3937,47 +3955,47 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="21" t="s">
+      <c r="V17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="23"/>
-      <c r="AA17" s="21" t="s">
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="23"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -4986,61 +5004,1555 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>1471.3999999999996</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
         <v>2334.2200000000003</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
         <v>-377.07999999999993</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
         <v>2640</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
         <v>-3053.6</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
       <c r="AA30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="20">
         <f>AB29-AC29-AD29</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="27"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="Q17:T17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="27"/>
+    </row>
+    <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3955</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:C28" si="0">B19*B3</f>
+        <v>474.59999999999997</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3225</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="14">
+        <v>6529</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19:I28" si="1">H19*C3</f>
+        <v>783.48</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="14">
+        <v>896</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" ref="N19:N28" si="2">M19*D3</f>
+        <v>107.52</v>
+      </c>
+      <c r="O19" s="14">
+        <v>989</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" ref="S19:S28" si="3">R19*E3</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" ref="X19:X28" si="4">W19*G3</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <f>AB19*G3</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="14">
+        <v>410</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="14">
+        <v>200</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" ref="AC20:AC28" si="5">AB20*G4</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="14">
+        <v>50</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="14">
+        <v>2000</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="T22" s="14">
+        <v>4000</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="14">
+        <v>500</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="X27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="15">
+        <f>SUM(B19:B28)</f>
+        <v>4470</v>
+      </c>
+      <c r="C29" s="15">
+        <f>SUM(C19:C28)</f>
+        <v>499.2</v>
+      </c>
+      <c r="D29" s="15">
+        <f>SUM(D19:D28)</f>
+        <v>4725</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="15">
+        <f>SUM(H19:H28)</f>
+        <v>7079</v>
+      </c>
+      <c r="I29" s="15">
+        <f>SUM(I19:I28)</f>
+        <v>810.23</v>
+      </c>
+      <c r="J29" s="15">
+        <f>SUM(J19:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="15">
+        <f>SUM(M19:M28)</f>
+        <v>896</v>
+      </c>
+      <c r="N29" s="15">
+        <f>SUM(N19:N28)</f>
+        <v>107.52</v>
+      </c>
+      <c r="O29" s="15">
+        <f>SUM(O19:O28)</f>
+        <v>989</v>
+      </c>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="15">
+        <f>SUM(R19:R28)</f>
+        <v>2200</v>
+      </c>
+      <c r="S29" s="15">
+        <f>SUM(S19:S28)</f>
+        <v>66</v>
+      </c>
+      <c r="T29" s="15">
+        <f>SUM(T19:T28)</f>
+        <v>4000</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" s="15">
+        <f>SUM(W19:W28)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <f>SUM(X19:X28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>SUM(Y19:Y28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>SUM(AB19:AB28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15">
+        <f>SUM(AC19:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15">
+        <f>SUM(AD19:AD28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="19">
+        <f>B29-C29-D29</f>
+        <v>-754.19999999999982</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="20">
+        <f>H29-I29-J29</f>
+        <v>6268.77</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="20">
+        <f>M29-N29-O29</f>
+        <v>-200.51999999999998</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="20">
+        <f>R29-S29-T29</f>
+        <v>-1866</v>
+      </c>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="V30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W30" s="20">
+        <f>X29+Y29-W29</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
+      <c r="AA30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB30" s="20">
+        <f>AB29-AC29-AD29</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
@@ -5121,12 +6633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5137,14 +6649,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -5152,19 +6664,19 @@
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>61</v>
@@ -5172,7 +6684,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.12</v>
@@ -5198,7 +6710,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0.05</v>
@@ -5224,7 +6736,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0.12</v>
@@ -5250,7 +6762,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3.5000000000000003E-2</v>
@@ -5276,7 +6788,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>3.5000000000000003E-2</v>
@@ -5328,7 +6840,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
@@ -5406,7 +6918,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>0.12</v>
@@ -5431,57 +6943,57 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="G17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="L17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="Q17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="23"/>
-      <c r="AA17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="23"/>
+      <c r="V17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>76</v>
@@ -5491,10 +7003,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>76</v>
@@ -5504,10 +7016,10 @@
         <v>17</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>76</v>
@@ -5517,10 +7029,10 @@
         <v>17</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>76</v>
@@ -5530,10 +7042,10 @@
         <v>17</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Y18" s="11" t="s">
         <v>76</v>
@@ -5542,10 +7054,10 @@
         <v>17</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="11" t="s">
         <v>76</v>
@@ -5553,82 +7065,82 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B19" s="14">
-        <v>3955</v>
+        <v>3755</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" ref="C19:C28" si="0">B19*B3</f>
-        <v>474.59999999999997</v>
+        <v>450.59999999999997</v>
       </c>
       <c r="D19" s="14">
-        <v>3225</v>
+        <v>1290</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H19" s="14">
-        <v>6529</v>
+        <v>5289</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" ref="I19:I28" si="1">H19*C3</f>
-        <v>783.48</v>
+        <v>634.67999999999995</v>
       </c>
       <c r="J19" s="14">
-        <v>0</v>
+        <v>6450</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="M19" s="14">
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" ref="N19:N28" si="2">M19*D3</f>
-        <v>107.52</v>
+        <v>116.75999999999999</v>
       </c>
       <c r="O19" s="14">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="R19" s="14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" ref="S19:S28" si="3">R19*E3</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="T19" s="14">
         <v>0</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="W19" s="14">
-        <v>0</v>
+        <v>2191</v>
       </c>
       <c r="X19" s="14">
         <f t="shared" ref="X19:X28" si="4">W19*G3</f>
-        <v>0</v>
+        <v>262.92</v>
       </c>
       <c r="Y19" s="14">
         <v>0</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="14">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AC19" s="14">
         <f>AB19*G3</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AD19" s="14">
         <v>0</v>
@@ -5636,21 +7148,21 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B20" s="14">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="D20" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H20" s="14">
         <v>0</v>
@@ -5664,7 +7176,7 @@
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="M20" s="14">
         <v>0</v>
@@ -5678,33 +7190,33 @@
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="R20" s="14">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="T20" s="14">
         <v>0</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="W20" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X20" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="14">
         <v>0</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="AB20" s="14">
         <v>0</v>
@@ -5719,21 +7231,21 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B21" s="14">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
@@ -5747,7 +7259,7 @@
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
@@ -5761,7 +7273,7 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="R21" s="14">
         <v>0</v>
@@ -5774,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="W21" s="14">
         <v>0</v>
@@ -5787,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="AB21" s="14">
         <v>0</v>
@@ -5802,7 +7314,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B22" s="14">
         <v>100</v>
@@ -5812,11 +7324,11 @@
         <v>3.5000000000000004</v>
       </c>
       <c r="D22" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H22" s="14">
         <v>50</v>
@@ -5830,7 +7342,7 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="M22" s="14">
         <v>0</v>
@@ -5844,33 +7356,33 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="R22" s="14">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="T22" s="14">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="W22" s="14">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="X22" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Y22" s="14">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="14">
         <v>0</v>
@@ -5885,7 +7397,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -5899,7 +7411,7 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -5913,7 +7425,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M23" s="14">
         <v>0</v>
@@ -5927,7 +7439,7 @@
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="R23" s="14">
         <v>0</v>
@@ -5940,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="W23" s="14">
         <v>0</v>
@@ -5953,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AB23" s="14">
         <v>0</v>
@@ -6051,7 +7563,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B25" s="14">
         <v>0</v>
@@ -6065,21 +7577,21 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H25" s="14">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J25" s="14">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M25" s="14">
         <v>0</v>
@@ -6093,7 +7605,7 @@
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="R25" s="14">
         <v>0</v>
@@ -6106,20 +7618,20 @@
         <v>0</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="W25" s="14">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="X25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y25" s="14">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AB25" s="14">
         <v>0</v>
@@ -6300,7 +7812,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B28" s="14">
         <v>0</v>
@@ -6314,7 +7826,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H28" s="14">
         <v>0</v>
@@ -6328,7 +7840,7 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M28" s="14">
         <v>0</v>
@@ -6342,7 +7854,7 @@
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R28" s="14">
         <v>0</v>
@@ -6355,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
@@ -6368,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB28" s="14">
         <v>0</v>
@@ -6383,93 +7895,93 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B29" s="15">
         <f>SUM(B19:B28)</f>
-        <v>4470</v>
+        <v>4335</v>
       </c>
       <c r="C29" s="15">
         <f>SUM(C19:C28)</f>
-        <v>499.2</v>
+        <v>480.9</v>
       </c>
       <c r="D29" s="15">
         <f>SUM(D19:D28)</f>
-        <v>4725</v>
+        <v>1490</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H29" s="15">
         <f>SUM(H19:H28)</f>
-        <v>7079</v>
+        <v>6339</v>
       </c>
       <c r="I29" s="15">
         <f>SUM(I19:I28)</f>
-        <v>810.23</v>
+        <v>686.43</v>
       </c>
       <c r="J29" s="15">
         <f>SUM(J19:J28)</f>
-        <v>0</v>
+        <v>8250</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M29" s="15">
         <f>SUM(M19:M28)</f>
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="N29" s="15">
         <f>SUM(N19:N28)</f>
-        <v>107.52</v>
+        <v>116.75999999999999</v>
       </c>
       <c r="O29" s="15">
         <f>SUM(O19:O28)</f>
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="R29" s="15">
         <f>SUM(R19:R28)</f>
-        <v>2200</v>
+        <v>7800</v>
       </c>
       <c r="S29" s="15">
         <f>SUM(S19:S28)</f>
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="T29" s="15">
         <f>SUM(T19:T28)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="W29" s="15">
         <f>SUM(W19:W28)</f>
-        <v>0</v>
+        <v>5591</v>
       </c>
       <c r="X29" s="15">
         <f>SUM(X19:X28)</f>
-        <v>0</v>
+        <v>364.92</v>
       </c>
       <c r="Y29" s="15">
         <f>SUM(Y19:Y28)</f>
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="AB29" s="15">
         <f>SUM(AB19:AB28)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AC29" s="15">
         <f>SUM(AC19:AC28)</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AD29" s="15">
         <f>SUM(AD19:AD28)</f>
@@ -6478,63 +7990,63 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="24">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
-        <v>-754.19999999999982</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+        <v>2364.1</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="25">
+        <v>22</v>
+      </c>
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
-        <v>6268.77</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+        <v>-2597.4300000000003</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="25">
+        <v>22</v>
+      </c>
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
-        <v>-200.51999999999998</v>
-      </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+        <v>856.24</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="25">
+        <v>22</v>
+      </c>
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
-        <v>-1866</v>
-      </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+        <v>2539</v>
+      </c>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="W30" s="25">
+        <v>22</v>
+      </c>
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+        <v>-2186.08</v>
+      </c>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
       <c r="AA30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB30" s="25">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="20">
         <f>AB29-AC29-AD29</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="27"/>
+        <v>792</v>
+      </c>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
@@ -6602,11 +8114,1743 @@
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="W30:Y30"/>
     <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="V17:Y17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="Q17:T17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="27"/>
+    </row>
+    <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="14">
+        <v>4885</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:C28" si="0">B19*B3</f>
+        <v>586.19999999999993</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1075</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="14">
+        <v>4375</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19:I28" si="1">H19*C3</f>
+        <v>525</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2365</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1138</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" ref="N19:N28" si="2">M19*D3</f>
+        <v>136.56</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1505</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="14">
+        <v>2500</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" ref="S19:S28" si="3">R19*E3</f>
+        <v>300</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="14">
+        <v>2922</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" ref="X19:X28" si="4">W19*G3</f>
+        <v>350.64</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <f>AB19*G3</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14">
+        <v>980</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="14">
+        <v>40</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="14">
+        <v>130</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="O20" s="14">
+        <v>200</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" ref="AC20:AC28" si="5">AB20*G4</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="14">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="14">
+        <v>200</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D22" s="14">
+        <v>400</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC22" s="14">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="14">
+        <v>100</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="14">
+        <v>500</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J25" s="14">
+        <v>900</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="14">
+        <v>9500</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="14">
+        <v>5000</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14">
+        <v>600</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="X27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15">
+        <f>SUM(B19:B28)</f>
+        <v>6705</v>
+      </c>
+      <c r="C29" s="15">
+        <f>SUM(C19:C28)</f>
+        <v>676.99999999999989</v>
+      </c>
+      <c r="D29" s="15">
+        <f>SUM(D19:D28)</f>
+        <v>1475</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="15">
+        <f>SUM(H19:H28)</f>
+        <v>5015</v>
+      </c>
+      <c r="I29" s="15">
+        <f>SUM(I19:I28)</f>
+        <v>557</v>
+      </c>
+      <c r="J29" s="15">
+        <f>SUM(J19:J28)</f>
+        <v>3265</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="15">
+        <f>SUM(M19:M28)</f>
+        <v>1268</v>
+      </c>
+      <c r="N29" s="15">
+        <f>SUM(N19:N28)</f>
+        <v>140.46</v>
+      </c>
+      <c r="O29" s="15">
+        <f>SUM(O19:O28)</f>
+        <v>1705</v>
+      </c>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="15">
+        <f>SUM(R19:R28)</f>
+        <v>12000</v>
+      </c>
+      <c r="S29" s="15">
+        <f>SUM(S19:S28)</f>
+        <v>775</v>
+      </c>
+      <c r="T29" s="15">
+        <f>SUM(T19:T28)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="15">
+        <f>SUM(W19:W28)</f>
+        <v>7922</v>
+      </c>
+      <c r="X29" s="15">
+        <f>SUM(X19:X28)</f>
+        <v>500.64</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>SUM(Y19:Y28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>SUM(AB19:AB28)</f>
+        <v>1000</v>
+      </c>
+      <c r="AC29" s="15">
+        <f>SUM(AC19:AC28)</f>
+        <v>30</v>
+      </c>
+      <c r="AD29" s="15">
+        <f>SUM(AD19:AD28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19">
+        <f>B29-C29-D29</f>
+        <v>4553</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="20">
+        <f>H29-I29-J29</f>
+        <v>1193</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="20">
+        <f>M29-N29-O29</f>
+        <v>-577.46</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="20">
+        <f>R29-S29-T29</f>
+        <v>11225</v>
+      </c>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="V30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" s="20">
+        <f>X29+Y29-W29</f>
+        <v>-7421.36</v>
+      </c>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
+      <c r="AA30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="20">
+        <f>AB29-AC29-AD29</f>
+        <v>970</v>
+      </c>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34">
+        <v>-6451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="14">
+        <v>6720</v>
+      </c>
+      <c r="C38" s="14">
+        <f>B38*H3</f>
+        <v>806.4</v>
+      </c>
+      <c r="D38" s="14">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="14">
+        <v>100</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" ref="C39:C47" si="6">B39*H4</f>
+        <v>5</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="14">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="14">
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="14">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <f>B46*H11</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="14">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="15">
+        <f>SUM(B38:B47)</f>
+        <v>6820</v>
+      </c>
+      <c r="C48" s="15">
+        <f>SUM(C38:C47)</f>
+        <v>811.4</v>
+      </c>
+      <c r="D48" s="15">
+        <f>SUM(D38:D47)</f>
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="20">
+        <f>B48-C48-D48</f>
+        <v>-3966.3999999999996</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="AB30:AD30"/>
     <mergeCell ref="V17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6620,7 +9864,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -6631,13 +9875,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
@@ -6881,40 +10125,40 @@
       <c r="M12" s="5"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -7766,51 +11010,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>-5514.9</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>878.60000000000036</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>2451.1399999999994</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>1760</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>-1716</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G31" s="28" t="s">
@@ -7910,13 +11154,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
@@ -8160,40 +11404,40 @@
       <c r="M12" s="5"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -9045,51 +12289,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>1638.1399999999999</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>-2926.5599999999995</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>0</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>-1924</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>56.799999999999955</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U31" s="6"/>
@@ -9147,17 +12391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9169,7 +12413,7 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -9180,13 +12424,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
@@ -9430,40 +12674,40 @@
       <c r="M12" s="5"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -10315,51 +13559,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>3973.92</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>-2464.16</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>0</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>2472.8000000000002</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>-4642.6000000000004</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U31" s="6"/>
@@ -10472,17 +13716,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10505,13 +13749,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
@@ -10765,40 +14009,40 @@
       <c r="N12" s="6"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -11650,51 +14894,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>1654.1800000000003</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>-4618.72</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>0</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>765</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>0</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U31" s="6"/>
@@ -11762,17 +15006,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11795,13 +15039,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
@@ -12055,40 +15299,40 @@
       <c r="N12" s="6"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -12940,51 +16184,51 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>936.96</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <f>G29-H29-I29</f>
         <v>6014.84</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="20">
         <f>L29-M29-N29</f>
         <v>0</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="18"/>
       <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="20">
         <f>Q29-R29-S29</f>
         <v>1225</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
       <c r="U30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="20">
         <f>V29-W29-X29</f>
         <v>-623.40000000000009</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U31" s="6"/>
@@ -13042,17 +16286,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13075,14 +16319,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -13369,41 +16613,41 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:25" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -14255,52 +17499,52 @@
       <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>2885.5</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
         <v>4506.04</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
         <v>1021.6800000000001</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
         <v>-5796.4</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
         <v>-672.19999999999982</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
@@ -14361,17 +17605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="W30:Y30"/>
     <mergeCell ref="V17:Y17"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="W30:Y30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14394,14 +17638,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -14688,47 +17932,47 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="AA17" s="19" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="AA17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -15735,61 +18979,61 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>-3301.64</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
         <v>-23647.919999999998</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
         <v>-271.27999999999997</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
         <v>1733</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
         <v>175.40000000000009</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
       <c r="AA30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="20">
         <f>AB29-AC29-AD29</f>
         <v>983.5</v>
       </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="27"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
@@ -15886,14 +19130,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
@@ -16180,47 +19424,47 @@
       <c r="O12" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="AA17" s="19" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="AA17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -17227,61 +20471,61 @@
       <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <f>B29-C29-D29</f>
         <v>1512.6</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>H29-I29-J29</f>
         <v>-4823.28</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <f>M29-N29-O29</f>
         <v>-5069.2</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="20">
         <f>R29-S29-T29</f>
         <v>1044</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="20">
         <f>X29+Y29-W29</f>
         <v>4156.2</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
       <c r="AA30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="20">
         <f>AB29-AC29-AD29</f>
         <v>98.5</v>
       </c>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="27"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
